--- a/taxonomic-classification/analysis/HetComposition/data/HetsComposition.xlsx
+++ b/taxonomic-classification/analysis/HetComposition/data/HetsComposition.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MED4-MIT1002_class" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MED4-MIT1002_genus" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MED4Xe_class" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MED4Xe_genus" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MED4-Alteromonas_genus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MED4-Alteromonas_class" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MED4Xe_genus" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MED4Xe_class" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="MITS9451Xe_class" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="MITS9451Xe_genus" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
@@ -463,25 +463,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC A</t>
+          <t>MED4-Alteromonas_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gammaproteobacteria</t>
+          <t>Alteromonas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>497428</v>
+        <v>453879</v>
       </c>
       <c r="D2" t="n">
-        <v>99.58957151265922</v>
+        <v>97.60020127344158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC A</t>
+          <t>MED4-Alteromonas_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,34 +490,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2050</v>
+        <v>11160</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4104284873407836</v>
+        <v>2.399798726558418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC B</t>
+          <t>MED4-Alteromonas_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gammaproteobacteria</t>
+          <t>Alteromonas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>564496</v>
+        <v>510614</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59526456006634</v>
+        <v>97.63117993587035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC B</t>
+          <t>MED4-Alteromonas_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -526,34 +526,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2294</v>
+        <v>12389</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4047354399336616</v>
+        <v>2.368820064129651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC C</t>
+          <t>MED4-Alteromonas_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gammaproteobacteria</t>
+          <t>Alteromonas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9190291</v>
+        <v>8321429</v>
       </c>
       <c r="D6" t="n">
-        <v>99.55223494190135</v>
+        <v>97.59139588727597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC C</t>
+          <t>MED4-Alteromonas_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -562,34 +562,34 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41336</v>
+        <v>205377</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4477650580986429</v>
+        <v>2.408604112724037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 A</t>
+          <t>MED4-Alteromonas_1stinfection_A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gammaproteobacteria</t>
+          <t>Alteromonas</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>876954</v>
+        <v>799488</v>
       </c>
       <c r="D8" t="n">
-        <v>99.65205178087672</v>
+        <v>97.54397780429419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 A</t>
+          <t>MED4-Alteromonas_1stinfection_A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -598,34 +598,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3062</v>
+        <v>20130</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3479482191232887</v>
+        <v>2.456022195705804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 B</t>
+          <t>MED4-Alteromonas_1stinfection_B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gammaproteobacteria</t>
+          <t>Alteromonas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9714382</v>
+        <v>8798866</v>
       </c>
       <c r="D10" t="n">
-        <v>99.64348646583046</v>
+        <v>97.60915496629498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 B</t>
+          <t>MED4-Alteromonas_1stinfection_B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -634,34 +634,34 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34757</v>
+        <v>215520</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3565135341695302</v>
+        <v>2.390845033705014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 C</t>
+          <t>MED4-Alteromonas_1stinfection_C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gammaproteobacteria</t>
+          <t>Alteromonas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3095672</v>
+        <v>2809910</v>
       </c>
       <c r="D12" t="n">
-        <v>99.64444793508777</v>
+        <v>97.64793005821184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 C</t>
+          <t>MED4-Alteromonas_1stinfection_C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -670,34 +670,34 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11046</v>
+        <v>67683</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3555520649122321</v>
+        <v>2.352069941788154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 A</t>
+          <t>MED4-Alteromonas_2ndinfection_A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gammaproteobacteria</t>
+          <t>Alteromonas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1729118</v>
+        <v>1565020</v>
       </c>
       <c r="D14" t="n">
-        <v>99.64811459500331</v>
+        <v>97.68620844410017</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 A</t>
+          <t>MED4-Alteromonas_2ndinfection_A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -706,34 +706,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6106</v>
+        <v>37069</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3518854049967036</v>
+        <v>2.313791555899828</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 B</t>
+          <t>MED4-Alteromonas_2ndinfection_B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gammaproteobacteria</t>
+          <t>Alteromonas</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>667591</v>
+        <v>604543</v>
       </c>
       <c r="D16" t="n">
-        <v>99.65666056119578</v>
+        <v>97.69728761845661</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 B</t>
+          <t>MED4-Alteromonas_2ndinfection_B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -742,34 +742,34 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2300</v>
+        <v>14249</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3433394388042233</v>
+        <v>2.302712381543394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 C</t>
+          <t>MED4-Alteromonas_2ndinfection_C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gammaproteobacteria</t>
+          <t>Alteromonas</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>546008</v>
+        <v>497871</v>
       </c>
       <c r="D18" t="n">
-        <v>99.642314879701</v>
+        <v>97.62769893856293</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 C</t>
+          <t>MED4-Alteromonas_2ndinfection_C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1960</v>
+        <v>12098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3576851202989955</v>
+        <v>2.372301061437067</v>
       </c>
     </row>
   </sheetData>
@@ -828,25 +828,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC A</t>
+          <t>MED4-Alteromonas_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alteromonas</t>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>453879</v>
+        <v>497428</v>
       </c>
       <c r="D2" t="n">
-        <v>97.60020127344158</v>
+        <v>99.58957151265922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC A</t>
+          <t>MED4-Alteromonas_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -855,34 +855,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11160</v>
+        <v>2050</v>
       </c>
       <c r="D3" t="n">
-        <v>2.399798726558418</v>
+        <v>0.4104284873407836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC B</t>
+          <t>MED4-Alteromonas_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alteromonas</t>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>510614</v>
+        <v>564496</v>
       </c>
       <c r="D4" t="n">
-        <v>97.63117993587035</v>
+        <v>99.59526456006634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC B</t>
+          <t>MED4-Alteromonas_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -891,34 +891,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12389</v>
+        <v>2294</v>
       </c>
       <c r="D5" t="n">
-        <v>2.368820064129651</v>
+        <v>0.4047354399336616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC C</t>
+          <t>MED4-Alteromonas_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alteromonas</t>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8321429</v>
+        <v>9190291</v>
       </c>
       <c r="D6" t="n">
-        <v>97.59139588727597</v>
+        <v>99.55223494190135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC C</t>
+          <t>MED4-Alteromonas_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -927,34 +927,34 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>205377</v>
+        <v>41336</v>
       </c>
       <c r="D7" t="n">
-        <v>2.408604112724037</v>
+        <v>0.4477650580986429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 A</t>
+          <t>MED4-Alteromonas_1stinfection_A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alteromonas</t>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>799488</v>
+        <v>876954</v>
       </c>
       <c r="D8" t="n">
-        <v>97.54397780429419</v>
+        <v>99.65205178087672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 A</t>
+          <t>MED4-Alteromonas_1stinfection_A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -963,34 +963,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20130</v>
+        <v>3062</v>
       </c>
       <c r="D9" t="n">
-        <v>2.456022195705804</v>
+        <v>0.3479482191232887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 B</t>
+          <t>MED4-Alteromonas_1stinfection_B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alteromonas</t>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8798866</v>
+        <v>9714382</v>
       </c>
       <c r="D10" t="n">
-        <v>97.60915496629498</v>
+        <v>99.64348646583046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 B</t>
+          <t>MED4-Alteromonas_1stinfection_B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -999,34 +999,34 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>215520</v>
+        <v>34757</v>
       </c>
       <c r="D11" t="n">
-        <v>2.390845033705014</v>
+        <v>0.3565135341695302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 C</t>
+          <t>MED4-Alteromonas_1stinfection_C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alteromonas</t>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2809910</v>
+        <v>3095672</v>
       </c>
       <c r="D12" t="n">
-        <v>97.64793005821184</v>
+        <v>99.64444793508777</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 C</t>
+          <t>MED4-Alteromonas_1stinfection_C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1035,34 +1035,34 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>67683</v>
+        <v>11046</v>
       </c>
       <c r="D13" t="n">
-        <v>2.352069941788154</v>
+        <v>0.3555520649122321</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 A</t>
+          <t>MED4-Alteromonas_2ndinfection_A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alteromonas</t>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1565020</v>
+        <v>1729118</v>
       </c>
       <c r="D14" t="n">
-        <v>97.68620844410017</v>
+        <v>99.64811459500331</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 A</t>
+          <t>MED4-Alteromonas_2ndinfection_A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1071,34 +1071,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37069</v>
+        <v>6106</v>
       </c>
       <c r="D15" t="n">
-        <v>2.313791555899828</v>
+        <v>0.3518854049967036</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 B</t>
+          <t>MED4-Alteromonas_2ndinfection_B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alteromonas</t>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>604543</v>
+        <v>667591</v>
       </c>
       <c r="D16" t="n">
-        <v>97.69728761845661</v>
+        <v>99.65666056119578</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 B</t>
+          <t>MED4-Alteromonas_2ndinfection_B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,34 +1107,34 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14249</v>
+        <v>2300</v>
       </c>
       <c r="D17" t="n">
-        <v>2.302712381543394</v>
+        <v>0.3433394388042233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 C</t>
+          <t>MED4-Alteromonas_2ndinfection_C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alteromonas</t>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497871</v>
+        <v>546008</v>
       </c>
       <c r="D18" t="n">
-        <v>97.62769893856293</v>
+        <v>99.642314879701</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 C</t>
+          <t>MED4-Alteromonas_2ndinfection_C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12098</v>
+        <v>1960</v>
       </c>
       <c r="D19" t="n">
-        <v>2.372301061437067</v>
+        <v>0.3576851202989955</v>
       </c>
     </row>
   </sheetData>
@@ -1155,6 +1155,1343 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>taxon_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thalassospira</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>196065</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.1336181423945</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>94739</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.35904852570481</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>93549</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.10332207993708</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Qipengyuania</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24158</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.191461745257778</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pseudohoeflea</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.835378786739187</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_A</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Methylophaga</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5466</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.174622481148233</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alloalcanivorax</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2356</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5062953833855173</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26507</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.696252855432897</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_B</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Thalassospira</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>138423</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.65203300253133</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_B</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>111471</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.51560629971298</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_B</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>54872</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.52916318035947</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_B</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pseudohoeflea</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>22097</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.850906086827584</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_B</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Qipengyuania</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>20170</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.34066958280818</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_B</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Methylophaga</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5823</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.541830390713537</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_B</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alloalcanivorax</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1685</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4461590603387102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_B</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>23127</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.123632396708219</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_C</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Thalassospira</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>164900</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.214655668521</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_C</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>133577</v>
+      </c>
+      <c r="D19" t="n">
+        <v>30.14567653265027</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_C</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>62777</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14.16752237054423</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_C</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pseudohoeflea</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>23489</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.301000891436567</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_C</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Qipengyuania</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>23363</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.272565193351463</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_C</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Methylophaga</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6955</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.569605398269033</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_C</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Alloalcanivorax</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2216</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5001071980681779</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MED4Xe_nophagecontrol_C</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>25828</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.828866747159251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Thalassospira</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>889088</v>
+      </c>
+      <c r="D26" t="n">
+        <v>58.94042369263325</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>280186</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18.57440607987526</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_A</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>157120</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10.41597611326048</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pseudohoeflea</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>43905</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.910599740661287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_A</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Qipengyuania</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>36036</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.388939124347344</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_A</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Alloalcanivorax</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>20174</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.337397543972231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_A</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Methylophaga</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>18289</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.212434999588983</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>63654</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.219822705661167</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_B</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Thalassospira</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>593231</v>
+      </c>
+      <c r="D34" t="n">
+        <v>58.31116799068957</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_B</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>196830</v>
+      </c>
+      <c r="D35" t="n">
+        <v>19.34724786062668</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_B</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>101919</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.01804681556272</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_B</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pseudohoeflea</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>28524</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.803743829581444</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_B</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Qipengyuania</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>22792</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.240321461359566</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_B</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Alloalcanivorax</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>21227</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.086491034585798</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_B</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Methylophaga</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>10773</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.05892344257751</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_B</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>42058</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.1340575650167</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_C</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Thalassospira</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>596145</v>
+      </c>
+      <c r="D42" t="n">
+        <v>57.56595782484506</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_C</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>196476</v>
+      </c>
+      <c r="D43" t="n">
+        <v>18.97244651820322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_C</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>106143</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10.24955918677927</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_C</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pseudohoeflea</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>31021</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.995502063565942</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_C</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Qipengyuania</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>29165</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.81627986473359</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_C</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alloalcanivorax</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>22159</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.139754689615348</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_C</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Methylophaga</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10694</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.032652044349769</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MED4Xe_1stinfection_C</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>43783</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.227847807907793</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_A</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Thalassospira</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>411032</v>
+      </c>
+      <c r="D50" t="n">
+        <v>31.68150160167968</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_A</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Methylophaga</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>366658</v>
+      </c>
+      <c r="D51" t="n">
+        <v>28.26124490129398</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_A</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>211320</v>
+      </c>
+      <c r="D52" t="n">
+        <v>16.28811118955933</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_A</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>110966</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8.553031167237556</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_A</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Qipengyuania</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>28422</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.190709332905808</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_A</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pseudohoeflea</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>25258</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.94683471713936</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_A</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Alloalcanivorax</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>10511</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8101662725414448</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_A</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>133221</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10.26840081764283</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_B</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Methylophaga</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1361454</v>
+      </c>
+      <c r="D58" t="n">
+        <v>30.90752695788148</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_B</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Thalassospira</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1166727</v>
+      </c>
+      <c r="D59" t="n">
+        <v>26.48686345993929</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_B</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>809413</v>
+      </c>
+      <c r="D60" t="n">
+        <v>18.37517398131683</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_B</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>367100</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8.333849800462072</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_B</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Qipengyuania</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>100569</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.283102534956879</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_B</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Pseudohoeflea</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>76690</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.741005015520121</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_B</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Alloalcanivorax</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>52366</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.188805172026687</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_B</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>470608</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10.68367307789664</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_C</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Methylophaga</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>247594</v>
+      </c>
+      <c r="D66" t="n">
+        <v>29.75206412950873</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_C</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Thalassospira</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>243383</v>
+      </c>
+      <c r="D67" t="n">
+        <v>29.24605048600622</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_C</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>142753</v>
+      </c>
+      <c r="D68" t="n">
+        <v>17.15387453120738</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_C</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>71278</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8.565101040506326</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_C</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Qipengyuania</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>16565</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.990528616627673</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_C</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Pseudohoeflea</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>14106</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.695043565719889</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_C</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Alloalcanivorax</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>9662</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.161031542037825</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MED4Xe_2ndinfection_C</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>86850</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10.43630608838596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1193,7 +2530,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MED4Xe NPC A</t>
+          <t>MED4Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1211,7 +2548,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MED4Xe NPC A</t>
+          <t>MED4Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1229,7 +2566,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MED4Xe NPC A</t>
+          <t>MED4Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1247,7 +2584,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MED4Xe NPC A</t>
+          <t>MED4Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1265,7 +2602,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MED4Xe NPC B</t>
+          <t>MED4Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1283,7 +2620,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MED4Xe NPC B</t>
+          <t>MED4Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1301,7 +2638,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MED4Xe NPC B</t>
+          <t>MED4Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1319,7 +2656,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MED4Xe NPC B</t>
+          <t>MED4Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1337,7 +2674,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MED4Xe NPC C</t>
+          <t>MED4Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1355,7 +2692,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MED4Xe NPC C</t>
+          <t>MED4Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1373,7 +2710,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MED4Xe NPC C</t>
+          <t>MED4Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1391,7 +2728,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MED4Xe NPC C</t>
+          <t>MED4Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1409,7 +2746,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 A</t>
+          <t>MED4Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1427,7 +2764,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 A</t>
+          <t>MED4Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1445,7 +2782,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 A</t>
+          <t>MED4Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1463,7 +2800,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 A</t>
+          <t>MED4Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1481,7 +2818,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 B</t>
+          <t>MED4Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1499,7 +2836,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 B</t>
+          <t>MED4Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1517,7 +2854,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 B</t>
+          <t>MED4Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1535,7 +2872,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 B</t>
+          <t>MED4Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1553,7 +2890,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 C</t>
+          <t>MED4Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1571,7 +2908,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 C</t>
+          <t>MED4Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1589,7 +2926,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 C</t>
+          <t>MED4Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1607,7 +2944,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 C</t>
+          <t>MED4Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1625,7 +2962,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 A</t>
+          <t>MED4Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1643,7 +2980,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 A</t>
+          <t>MED4Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1661,7 +2998,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 A</t>
+          <t>MED4Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1679,7 +3016,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 A</t>
+          <t>MED4Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1697,7 +3034,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 B</t>
+          <t>MED4Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1715,7 +3052,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 B</t>
+          <t>MED4Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1733,7 +3070,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 B</t>
+          <t>MED4Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1751,7 +3088,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 B</t>
+          <t>MED4Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1769,7 +3106,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 C</t>
+          <t>MED4Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1787,7 +3124,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 C</t>
+          <t>MED4Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1805,7 +3142,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 C</t>
+          <t>MED4Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1823,7 +3160,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 C</t>
+          <t>MED4Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1836,1343 +3173,6 @@
       </c>
       <c r="D37" t="n">
         <v>0.9281920930619327</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>taxon_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>percent</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Thalassospira</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>196065</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.1336181423945</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Alteromonas</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>94739</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.35904852570481</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Marinobacter</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>93549</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.10332207993708</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC A</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Qipengyuania</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24158</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.191461745257778</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pseudohoeflea</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22501</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.835378786739187</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC A</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Methylophaga</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5466</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.174622481148233</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC A</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Alloalcanivorax</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2356</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5062953833855173</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC A</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>26507</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.696252855432897</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC B</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Thalassospira</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>138423</v>
-      </c>
-      <c r="D10" t="n">
-        <v>36.65203300253133</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC B</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Alteromonas</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>111471</v>
-      </c>
-      <c r="D11" t="n">
-        <v>29.51560629971298</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC B</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Marinobacter</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>54872</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14.52916318035947</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC B</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pseudohoeflea</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>22097</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.850906086827584</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC B</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Qipengyuania</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>20170</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.34066958280818</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC B</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Methylophaga</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>5823</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.541830390713537</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC B</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Alloalcanivorax</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1685</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4461590603387102</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC B</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>23127</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.123632396708219</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC C</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Thalassospira</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>164900</v>
-      </c>
-      <c r="D18" t="n">
-        <v>37.214655668521</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC C</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Alteromonas</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>133577</v>
-      </c>
-      <c r="D19" t="n">
-        <v>30.14567653265027</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC C</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Marinobacter</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>62777</v>
-      </c>
-      <c r="D20" t="n">
-        <v>14.16752237054423</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC C</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Pseudohoeflea</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>23489</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5.301000891436567</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC C</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Qipengyuania</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>23363</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.272565193351463</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC C</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Methylophaga</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>6955</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.569605398269033</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC C</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Alloalcanivorax</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2216</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5001071980681779</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MED4Xe NPC C</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>25828</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5.828866747159251</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 A</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Thalassospira</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>889088</v>
-      </c>
-      <c r="D26" t="n">
-        <v>58.94042369263325</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 A</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Alteromonas</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>280186</v>
-      </c>
-      <c r="D27" t="n">
-        <v>18.57440607987526</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 A</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Marinobacter</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>157120</v>
-      </c>
-      <c r="D28" t="n">
-        <v>10.41597611326048</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 A</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Pseudohoeflea</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>43905</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2.910599740661287</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 A</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Qipengyuania</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>36036</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.388939124347344</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 A</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Alloalcanivorax</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>20174</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.337397543972231</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 A</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Methylophaga</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>18289</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.212434999588983</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 A</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>63654</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.219822705661167</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 B</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Thalassospira</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>593231</v>
-      </c>
-      <c r="D34" t="n">
-        <v>58.31116799068957</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 B</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Alteromonas</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>196830</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.34724786062668</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 B</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Marinobacter</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>101919</v>
-      </c>
-      <c r="D36" t="n">
-        <v>10.01804681556272</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 B</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Pseudohoeflea</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>28524</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2.803743829581444</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 B</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Qipengyuania</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>22792</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.240321461359566</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 B</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Alloalcanivorax</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>21227</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.086491034585798</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 B</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Methylophaga</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>10773</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.05892344257751</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 B</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>42058</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4.1340575650167</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 C</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Thalassospira</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>596145</v>
-      </c>
-      <c r="D42" t="n">
-        <v>57.56595782484506</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 C</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Alteromonas</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>196476</v>
-      </c>
-      <c r="D43" t="n">
-        <v>18.97244651820322</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 C</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Marinobacter</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>106143</v>
-      </c>
-      <c r="D44" t="n">
-        <v>10.24955918677927</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 C</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Pseudohoeflea</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>31021</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2.995502063565942</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 C</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Qipengyuania</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>29165</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2.81627986473359</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 C</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Alloalcanivorax</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>22159</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.139754689615348</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 C</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Methylophaga</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10694</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.032652044349769</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-1 C</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>43783</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4.227847807907793</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 A</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Thalassospira</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>411032</v>
-      </c>
-      <c r="D50" t="n">
-        <v>31.68150160167968</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 A</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Methylophaga</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>366658</v>
-      </c>
-      <c r="D51" t="n">
-        <v>28.26124490129398</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 A</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Alteromonas</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>211320</v>
-      </c>
-      <c r="D52" t="n">
-        <v>16.28811118955933</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 A</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Marinobacter</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>110966</v>
-      </c>
-      <c r="D53" t="n">
-        <v>8.553031167237556</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 A</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Qipengyuania</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>28422</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.190709332905808</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 A</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Pseudohoeflea</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>25258</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.94683471713936</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 A</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Alloalcanivorax</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>10511</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.8101662725414448</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 A</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>133221</v>
-      </c>
-      <c r="D57" t="n">
-        <v>10.26840081764283</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 B</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Methylophaga</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1361454</v>
-      </c>
-      <c r="D58" t="n">
-        <v>30.90752695788148</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 B</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Thalassospira</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1166727</v>
-      </c>
-      <c r="D59" t="n">
-        <v>26.48686345993929</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 B</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Alteromonas</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>809413</v>
-      </c>
-      <c r="D60" t="n">
-        <v>18.37517398131683</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 B</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Marinobacter</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>367100</v>
-      </c>
-      <c r="D61" t="n">
-        <v>8.333849800462072</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 B</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Qipengyuania</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>100569</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2.283102534956879</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 B</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Pseudohoeflea</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>76690</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1.741005015520121</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 B</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Alloalcanivorax</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>52366</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1.188805172026687</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 B</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>470608</v>
-      </c>
-      <c r="D65" t="n">
-        <v>10.68367307789664</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 C</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Methylophaga</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>247594</v>
-      </c>
-      <c r="D66" t="n">
-        <v>29.75206412950873</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 C</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Thalassospira</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>243383</v>
-      </c>
-      <c r="D67" t="n">
-        <v>29.24605048600622</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 C</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Alteromonas</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>142753</v>
-      </c>
-      <c r="D68" t="n">
-        <v>17.15387453120738</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 C</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Marinobacter</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>71278</v>
-      </c>
-      <c r="D69" t="n">
-        <v>8.565101040506326</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 C</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Qipengyuania</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>16565</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1.990528616627673</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 C</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Pseudohoeflea</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>14106</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.695043565719889</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 C</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Alloalcanivorax</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>9662</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1.161031542037825</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MED4Xe PSSP7-2 C</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>86850</v>
-      </c>
-      <c r="D73" t="n">
-        <v>10.43630608838596</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3219,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3237,7 +3237,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3255,7 +3255,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3273,7 +3273,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3291,7 +3291,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3309,7 +3309,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3327,7 +3327,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3345,7 +3345,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3363,7 +3363,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3381,7 +3381,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3399,7 +3399,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3417,7 +3417,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3435,7 +3435,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3453,7 +3453,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3471,7 +3471,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3489,7 +3489,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3507,7 +3507,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3525,7 +3525,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3543,7 +3543,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3561,7 +3561,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3579,7 +3579,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3597,7 +3597,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3615,7 +3615,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3633,7 +3633,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3669,7 +3669,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3687,7 +3687,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3705,7 +3705,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3723,7 +3723,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3741,7 +3741,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3759,7 +3759,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3777,7 +3777,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3795,7 +3795,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3813,7 +3813,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3831,7 +3831,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3849,7 +3849,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3867,7 +3867,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3885,7 +3885,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3903,7 +3903,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3939,7 +3939,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3957,7 +3957,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3975,7 +3975,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3993,7 +3993,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4011,7 +4011,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4070,7 +4070,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4088,7 +4088,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4106,7 +4106,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4124,7 +4124,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4142,7 +4142,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4160,7 +4160,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4196,7 +4196,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4214,7 +4214,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4232,7 +4232,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4250,7 +4250,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4268,7 +4268,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4286,7 +4286,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4304,7 +4304,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4322,7 +4322,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4358,7 +4358,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4376,7 +4376,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4394,7 +4394,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4412,7 +4412,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4430,7 +4430,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4448,7 +4448,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4466,7 +4466,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4484,7 +4484,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4502,7 +4502,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4520,7 +4520,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4538,7 +4538,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4556,7 +4556,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4574,7 +4574,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4592,7 +4592,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4610,7 +4610,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4628,7 +4628,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4646,7 +4646,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4664,7 +4664,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4682,7 +4682,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4700,7 +4700,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4718,7 +4718,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4736,7 +4736,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4754,7 +4754,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4772,7 +4772,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4790,7 +4790,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4808,7 +4808,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4826,7 +4826,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4844,7 +4844,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4862,7 +4862,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4880,7 +4880,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4898,7 +4898,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4916,7 +4916,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4934,7 +4934,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4952,7 +4952,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4970,7 +4970,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4988,7 +4988,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5006,7 +5006,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5024,7 +5024,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5042,7 +5042,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5060,7 +5060,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5078,7 +5078,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5096,7 +5096,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5114,7 +5114,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5132,7 +5132,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5150,7 +5150,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5168,7 +5168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5186,7 +5186,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5204,7 +5204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5222,7 +5222,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5240,7 +5240,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5258,7 +5258,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5276,7 +5276,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5294,7 +5294,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5312,7 +5312,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5330,7 +5330,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5348,7 +5348,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5366,7 +5366,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5384,7 +5384,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5402,7 +5402,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5420,7 +5420,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5438,7 +5438,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5456,7 +5456,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5474,7 +5474,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5492,7 +5492,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5510,7 +5510,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5528,7 +5528,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5546,7 +5546,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5564,7 +5564,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5582,7 +5582,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5600,7 +5600,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5618,7 +5618,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5636,7 +5636,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5654,7 +5654,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5672,7 +5672,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5690,7 +5690,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5708,7 +5708,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5726,7 +5726,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5744,7 +5744,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5762,7 +5762,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5780,7 +5780,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5798,7 +5798,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5816,7 +5816,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5834,7 +5834,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5852,7 +5852,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5870,7 +5870,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5888,7 +5888,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5906,7 +5906,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5924,7 +5924,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5942,7 +5942,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5960,7 +5960,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5996,7 +5996,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6014,7 +6014,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6032,7 +6032,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6050,7 +6050,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6068,7 +6068,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6086,7 +6086,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6104,7 +6104,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6140,7 +6140,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6158,7 +6158,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6194,7 +6194,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6212,7 +6212,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6230,7 +6230,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6248,7 +6248,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6266,7 +6266,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6284,7 +6284,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6302,7 +6302,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6320,7 +6320,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
